--- a/uploads/balance2020.xlsx
+++ b/uploads/balance2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\web_balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2199,7 +2199,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="C5" sqref="C5:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2329,7 +2329,9 @@
         <f>Уголь_пр!B3</f>
         <v>265.52999999999997</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="68">
+        <v>0</v>
+      </c>
       <c r="E5" s="68">
         <f>Нефтепродукты!B3</f>
         <v>0</v>
@@ -2346,9 +2348,15 @@
         <f>Электро!B4</f>
         <v>220.21</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="90"/>
+      <c r="I5" s="68">
+        <v>0</v>
+      </c>
+      <c r="J5" s="68">
+        <v>0</v>
+      </c>
+      <c r="K5" s="90">
+        <v>0</v>
+      </c>
       <c r="L5" s="96">
         <f t="shared" ref="L5:L15" si="0">SUM(C5:K5)</f>
         <v>541.52</v>
@@ -2367,7 +2375,9 @@
         <f>Уголь_пр!B4</f>
         <v>671.26</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="71">
+        <v>0</v>
+      </c>
       <c r="E6" s="71">
         <f>Нефтепродукты!B4</f>
         <v>2611.3099999999995</v>
@@ -2380,8 +2390,12 @@
         <f>ПТТ!B4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="71">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0</v>
+      </c>
       <c r="J6" s="71">
         <f>Электро!B5</f>
         <v>6741.43</v>
@@ -2408,7 +2422,9 @@
         <f>Уголь_пр!B5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="71">
+        <v>0</v>
+      </c>
       <c r="E7" s="71">
         <f>Нефтепродукты!B5</f>
         <v>0</v>
@@ -2421,8 +2437,12 @@
         <f>ПТТ!B5</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="71">
+        <v>0</v>
+      </c>
+      <c r="I7" s="71">
+        <v>0</v>
+      </c>
       <c r="J7" s="71">
         <f>-Электро!B6</f>
         <v>-2047.02</v>
@@ -2448,7 +2468,9 @@
         <f>Уголь_пр!B6</f>
         <v>79.489999999999995</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="71">
+        <v>0</v>
+      </c>
       <c r="E8" s="71">
         <f>Нефтепродукты!B6</f>
         <v>10.11</v>
@@ -2461,8 +2483,12 @@
         <f>ПТТ!B6</f>
         <v>23.089999999999996</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="H8" s="71">
+        <v>0</v>
+      </c>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
       <c r="J8" s="71">
         <f>Электро!B7</f>
         <v>0</v>
@@ -2487,7 +2513,9 @@
         <f>Уголь_пр!B7</f>
         <v>1016.28</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="74">
+        <v>0</v>
+      </c>
       <c r="E9" s="74">
         <f>Нефтепродукты!B7</f>
         <v>2621.42</v>
@@ -2504,7 +2532,9 @@
         <f>H5</f>
         <v>220.21</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="74">
+        <v>0</v>
+      </c>
       <c r="J9" s="74">
         <f>SUM(J5:J8)</f>
         <v>4694.41</v>
@@ -2529,7 +2559,9 @@
         <f>Уголь_пр!B8</f>
         <v>-7.0199999999999534</v>
       </c>
-      <c r="D10" s="71"/>
+      <c r="D10" s="71">
+        <v>0</v>
+      </c>
       <c r="E10" s="71">
         <f>Нефтепродукты!B8</f>
         <v>15.170000000000073</v>
@@ -2545,7 +2577,9 @@
       <c r="H10" s="71">
         <v>0</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="71">
+        <v>0</v>
+      </c>
       <c r="J10" s="71">
         <f>Электро!B9</f>
         <v>151.41000000000167</v>
@@ -2573,7 +2607,9 @@
         <f>-Уголь_пр!B9</f>
         <v>-71.400000000000006</v>
       </c>
-      <c r="D11" s="78"/>
+      <c r="D11" s="78">
+        <v>0</v>
+      </c>
       <c r="E11" s="78">
         <f>-Нефтепродукты!B10</f>
         <v>-6.85</v>
@@ -2590,12 +2626,16 @@
         <f>-H9</f>
         <v>-220.21</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="78">
+        <v>0</v>
+      </c>
       <c r="J11" s="78">
         <f>Электро!B3</f>
         <v>2140.9499999999998</v>
       </c>
-      <c r="K11" s="93"/>
+      <c r="K11" s="93">
+        <v>0</v>
+      </c>
       <c r="L11" s="98">
         <f>SUM(C11:K11)</f>
         <v>-1952.8400000000001</v>
@@ -2634,7 +2674,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="78">
+        <v>0</v>
+      </c>
       <c r="J12" s="78">
         <f t="shared" si="1"/>
         <v>-95.78</v>
@@ -2661,7 +2703,9 @@
         <f>-Уголь_пр!B11</f>
         <v>-49.87</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="71">
+        <v>0</v>
+      </c>
       <c r="E13" s="71">
         <f>-Нефтепродукты!B12</f>
         <v>-0.56000000000000005</v>
@@ -2674,8 +2718,12 @@
         <f>-ПТТ!B11</f>
         <v>0</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="101"/>
+      <c r="H13" s="71">
+        <v>0</v>
+      </c>
+      <c r="I13" s="101">
+        <v>0</v>
+      </c>
       <c r="J13" s="71">
         <f>-Электро!B11</f>
         <v>-9.67</v>
@@ -2702,7 +2750,9 @@
         <f>-Уголь_пр!B12</f>
         <v>-184.71999999999997</v>
       </c>
-      <c r="D14" s="71"/>
+      <c r="D14" s="71">
+        <v>0</v>
+      </c>
       <c r="E14" s="71">
         <f>-Нефтепродукты!B13</f>
         <v>-262.84000000000003</v>
@@ -2715,8 +2765,12 @@
         <f>-ПТТ!B12</f>
         <v>-78.88</v>
       </c>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="H14" s="71">
+        <v>0</v>
+      </c>
+      <c r="I14" s="71">
+        <v>0</v>
+      </c>
       <c r="J14" s="71">
         <f>-Электро!B12</f>
         <v>-86.11</v>
@@ -2741,7 +2795,9 @@
         <f>-Уголь_пр!B13+Уголь_пр!B14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="71">
+        <v>0</v>
+      </c>
       <c r="E15" s="71">
         <f>-(Нефтепродукты!B14+Нефтепродукты!B15)</f>
         <v>0</v>
@@ -2754,8 +2810,12 @@
         <f>-(ПТТ!B13+ПТТ!B14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="H15" s="71">
+        <v>0</v>
+      </c>
+      <c r="I15" s="71">
+        <v>0</v>
+      </c>
       <c r="J15" s="71">
         <f>-(Электро!B13+Электро!B14)</f>
         <v>0</v>
@@ -2829,7 +2889,9 @@
         <f>-Уголь_пр!B15</f>
         <v>0</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="71">
+        <v>0</v>
+      </c>
       <c r="E17" s="71">
         <f>-Нефтепродукты!B16</f>
         <v>0</v>
@@ -2842,8 +2904,12 @@
         <f>ПТТ!B15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="H17" s="71">
+        <v>0</v>
+      </c>
+      <c r="I17" s="71">
+        <v>0</v>
+      </c>
       <c r="J17" s="71">
         <f>-Электро!B15</f>
         <v>-0.5</v>
@@ -2868,7 +2934,9 @@
         <f>-Уголь_пр!B16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="71"/>
+      <c r="D18" s="71">
+        <v>0</v>
+      </c>
       <c r="E18" s="71">
         <f>-Нефтепродукты!B17</f>
         <v>0</v>
@@ -2881,8 +2949,12 @@
         <f>ПТТ!B16</f>
         <v>0</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="H18" s="71">
+        <v>0</v>
+      </c>
+      <c r="I18" s="71">
+        <v>0</v>
+      </c>
       <c r="J18" s="71">
         <f>-Электро!B16</f>
         <v>0</v>
@@ -2907,7 +2979,9 @@
         <f>-Уголь_пр!B17</f>
         <v>-636.75</v>
       </c>
-      <c r="D19" s="71"/>
+      <c r="D19" s="71">
+        <v>0</v>
+      </c>
       <c r="E19" s="71">
         <f>-Нефтепродукты!B18</f>
         <v>0</v>
@@ -2919,8 +2993,12 @@
       <c r="G19" s="71">
         <v>0</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="H19" s="71">
+        <v>0</v>
+      </c>
+      <c r="I19" s="71">
+        <v>0</v>
+      </c>
       <c r="J19" s="71">
         <f>-Электро!B17</f>
         <v>-5.2</v>
@@ -2945,7 +3023,9 @@
         <f>-Уголь_пр!B18</f>
         <v>0</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="78">
+        <v>0</v>
+      </c>
       <c r="E20" s="78">
         <f>-Нефтепродукты!B19</f>
         <v>0</v>
@@ -2958,8 +3038,12 @@
         <f>ПТТ!B18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="H20" s="78">
+        <v>0</v>
+      </c>
+      <c r="I20" s="78">
+        <v>0</v>
+      </c>
       <c r="J20" s="78">
         <f>-Электро!B18</f>
         <v>-458.65</v>
@@ -2984,7 +3068,9 @@
         <f>-Уголь_пр!B19</f>
         <v>0</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="78">
+        <v>0</v>
+      </c>
       <c r="E21" s="78">
         <f>-Нефтепродукты!B20</f>
         <v>0</v>
@@ -2997,8 +3083,12 @@
         <f>ПТТ!B19</f>
         <v>0</v>
       </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="H21" s="78">
+        <v>0</v>
+      </c>
+      <c r="I21" s="78">
+        <v>0</v>
+      </c>
       <c r="J21" s="78">
         <f>-Электро!B19</f>
         <v>-860.37</v>
@@ -3023,7 +3113,9 @@
         <f>Уголь_пр!B20</f>
         <v>80.56</v>
       </c>
-      <c r="D22" s="74"/>
+      <c r="D22" s="74">
+        <v>0</v>
+      </c>
       <c r="E22" s="74">
         <f>Нефтепродукты!B21</f>
         <v>2336</v>
@@ -3036,8 +3128,12 @@
         <f>ПТТ!C20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="74">
+        <v>0</v>
+      </c>
+      <c r="I22" s="74">
+        <v>0</v>
+      </c>
       <c r="J22" s="74">
         <f>Электро!B20</f>
         <v>5263.33</v>
@@ -3062,7 +3158,9 @@
         <f>Уголь_пр!B21</f>
         <v>0</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="78">
+        <v>0</v>
+      </c>
       <c r="E23" s="78">
         <f>Нефтепродукты!B22</f>
         <v>96</v>
@@ -3075,8 +3173,12 @@
         <f>ПТТ!B21</f>
         <v>0</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="H23" s="78">
+        <v>0</v>
+      </c>
+      <c r="I23" s="78">
+        <v>0</v>
+      </c>
       <c r="J23" s="78">
         <f>Электро!B21</f>
         <v>179.28</v>
@@ -3099,7 +3201,9 @@
         <f>C25+C26+C27+C28+C29</f>
         <v>0</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="78">
+        <v>0</v>
+      </c>
       <c r="E24" s="78">
         <f>E25+E26+E27+E28+E29</f>
         <v>424.36999999999995</v>
@@ -3108,9 +3212,15 @@
         <f>F25+F26+F27+F28+F29</f>
         <v>59.609999999999992</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="G24" s="78">
+        <v>0</v>
+      </c>
+      <c r="H24" s="78">
+        <v>0</v>
+      </c>
+      <c r="I24" s="78">
+        <v>0</v>
+      </c>
       <c r="J24" s="78">
         <f>J25+J26+J27+J28+J29</f>
         <v>1753.8300000000002</v>
@@ -3133,7 +3243,9 @@
         <f>Уголь_пр!B23</f>
         <v>0</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="78">
+        <v>0</v>
+      </c>
       <c r="E25" s="78">
         <f>Нефтепродукты!B24</f>
         <v>18.78</v>
@@ -3142,9 +3254,15 @@
         <f>'Пр-й газ'!B25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="G25" s="78">
+        <v>0</v>
+      </c>
+      <c r="H25" s="78">
+        <v>0</v>
+      </c>
+      <c r="I25" s="78">
+        <v>0</v>
+      </c>
       <c r="J25" s="78">
         <f>Электро!B23</f>
         <v>11.54</v>
@@ -3169,7 +3287,9 @@
         <f>Уголь_пр!B24</f>
         <v>0</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="78">
+        <v>0</v>
+      </c>
       <c r="E26" s="78">
         <f>Нефтепродукты!B25</f>
         <v>315.64</v>
@@ -3182,8 +3302,12 @@
         <f>ПТТ!C24</f>
         <v>0</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="H26" s="78">
+        <v>0</v>
+      </c>
+      <c r="I26" s="78">
+        <v>0</v>
+      </c>
       <c r="J26" s="78">
         <f>Электро!B24</f>
         <v>1241.58</v>
@@ -3206,7 +3330,9 @@
         <f>Уголь_пр!B25</f>
         <v>0</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="78">
+        <v>0</v>
+      </c>
       <c r="E27" s="78">
         <f>Нефтепродукты!B26</f>
         <v>40.020000000000003</v>
@@ -3215,9 +3341,15 @@
         <f>'Пр-й газ'!B27</f>
         <v>10.37</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="G27" s="78">
+        <v>0</v>
+      </c>
+      <c r="H27" s="78">
+        <v>0</v>
+      </c>
+      <c r="I27" s="78">
+        <v>0</v>
+      </c>
       <c r="J27" s="78">
         <f>Электро!B25</f>
         <v>95.9</v>
@@ -3242,7 +3374,9 @@
         <f>Уголь_пр!B26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="78">
+        <v>0</v>
+      </c>
       <c r="E28" s="78">
         <f>Нефтепродукты!B27</f>
         <v>22.380000000000003</v>
@@ -3255,8 +3389,12 @@
         <f>ПТТ!B26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="H28" s="78">
+        <v>0</v>
+      </c>
+      <c r="I28" s="78">
+        <v>0</v>
+      </c>
       <c r="J28" s="78">
         <f>Электро!B26</f>
         <v>234.9</v>
@@ -3279,7 +3417,9 @@
         <f>Уголь_пр!B27</f>
         <v>0</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="78">
+        <v>0</v>
+      </c>
       <c r="E29" s="78">
         <f>Нефтепродукты!B28</f>
         <v>27.55</v>
@@ -3288,9 +3428,15 @@
         <f>'Пр-й газ'!B29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
+      <c r="G29" s="78">
+        <v>0</v>
+      </c>
+      <c r="H29" s="78">
+        <v>0</v>
+      </c>
+      <c r="I29" s="78">
+        <v>0</v>
+      </c>
       <c r="J29" s="78">
         <f>Электро!B27</f>
         <v>169.91</v>
@@ -3315,7 +3461,9 @@
         <f>Уголь_пр!B28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="78">
+        <v>0</v>
+      </c>
       <c r="E30" s="78">
         <f>Нефтепродукты!B29</f>
         <v>231.93</v>
@@ -3328,8 +3476,12 @@
         <f>ПТТ!B28</f>
         <v>0</v>
       </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
+      <c r="H30" s="78">
+        <v>0</v>
+      </c>
+      <c r="I30" s="78">
+        <v>0</v>
+      </c>
       <c r="J30" s="78">
         <f>Электро!B28</f>
         <v>155.01</v>
@@ -3354,7 +3506,9 @@
         <f>Уголь_пр!B29</f>
         <v>0</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="78">
+        <v>0</v>
+      </c>
       <c r="E31" s="78">
         <f>Нефтепродукты!B30</f>
         <v>664.31</v>
@@ -3367,8 +3521,12 @@
         <f>ПТТ!B29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
+      <c r="H31" s="78">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78">
+        <v>0</v>
+      </c>
       <c r="J31" s="78">
         <f>Электро!B29</f>
         <v>502.18</v>
@@ -3393,7 +3551,9 @@
         <f>Уголь_пр!B30</f>
         <v>0</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="71">
+        <v>0</v>
+      </c>
       <c r="E32" s="71">
         <f>Нефтепродукты!B31</f>
         <v>20.149999999999999</v>
@@ -3406,8 +3566,12 @@
         <f>ПТТ!B30</f>
         <v>0</v>
       </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="71">
+        <v>0</v>
+      </c>
+      <c r="I32" s="71">
+        <v>0</v>
+      </c>
       <c r="J32" s="71">
         <f>Электро!B30</f>
         <v>334.12</v>
@@ -3432,7 +3596,9 @@
         <f>Уголь_пр!B31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="71">
+        <v>0</v>
+      </c>
       <c r="E33" s="71">
         <f>Нефтепродукты!B32</f>
         <v>7.62</v>
@@ -3445,8 +3611,12 @@
         <f>ПТТ!B31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
+      <c r="H33" s="71">
+        <v>0</v>
+      </c>
+      <c r="I33" s="71">
+        <v>0</v>
+      </c>
       <c r="J33" s="71">
         <f>Электро!B31</f>
         <v>11.05</v>
@@ -3471,7 +3641,9 @@
         <f>Уголь_пр!B32</f>
         <v>0</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="71">
+        <v>0</v>
+      </c>
       <c r="E34" s="71">
         <f>Нефтепродукты!B33</f>
         <v>317.82000000000005</v>
@@ -3484,8 +3656,12 @@
         <f>ПТТ!B32</f>
         <v>0</v>
       </c>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="H34" s="71">
+        <v>0</v>
+      </c>
+      <c r="I34" s="71">
+        <v>0</v>
+      </c>
       <c r="J34" s="71">
         <f>Электро!B32</f>
         <v>14.1</v>
@@ -3510,7 +3686,9 @@
         <f>Уголь_пр!B33</f>
         <v>0</v>
       </c>
-      <c r="D35" s="71"/>
+      <c r="D35" s="71">
+        <v>0</v>
+      </c>
       <c r="E35" s="71">
         <f>Нефтепродукты!B34</f>
         <v>174.03</v>
@@ -3523,8 +3701,12 @@
         <f>ПТТ!B33</f>
         <v>0</v>
       </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
+      <c r="H35" s="71">
+        <v>0</v>
+      </c>
+      <c r="I35" s="71">
+        <v>0</v>
+      </c>
       <c r="J35" s="71">
         <f>Электро!B33</f>
         <v>51.52</v>
@@ -3549,7 +3731,9 @@
         <f>Уголь_пр!B34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="78">
+        <v>0</v>
+      </c>
       <c r="E36" s="78">
         <f>Нефтепродукты!B35</f>
         <v>428.22</v>
@@ -3562,8 +3746,12 @@
         <f>ПТТ!B34</f>
         <v>0</v>
       </c>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
+      <c r="H36" s="78">
+        <v>0</v>
+      </c>
+      <c r="I36" s="78">
+        <v>0</v>
+      </c>
       <c r="J36" s="78">
         <f>Электро!B34</f>
         <v>860.62</v>
@@ -3588,7 +3776,9 @@
         <f>Уголь_пр!B35</f>
         <v>0</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="78">
+        <v>0</v>
+      </c>
       <c r="E37" s="78">
         <f>Нефтепродукты!B36</f>
         <v>99.460000000000008</v>
@@ -3601,8 +3791,12 @@
         <f>ПТТ!B35</f>
         <v>0</v>
       </c>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
+      <c r="H37" s="78">
+        <v>0</v>
+      </c>
+      <c r="I37" s="78">
+        <v>0</v>
+      </c>
       <c r="J37" s="78">
         <f>Электро!B35</f>
         <v>1269.5999999999999</v>
@@ -3627,7 +3821,9 @@
         <f>Уголь_пр!B36</f>
         <v>0.06</v>
       </c>
-      <c r="D38" s="78"/>
+      <c r="D38" s="78">
+        <v>0</v>
+      </c>
       <c r="E38" s="78">
         <f>Нефтепродукты!B37</f>
         <v>19.55</v>
@@ -3640,8 +3836,12 @@
         <f>ПТТ!B36</f>
         <v>0</v>
       </c>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
+      <c r="H38" s="78">
+        <v>0</v>
+      </c>
+      <c r="I38" s="78">
+        <v>0</v>
+      </c>
       <c r="J38" s="78">
         <f>Электро!B36</f>
         <v>0</v>
@@ -3666,7 +3866,9 @@
         <f>Уголь_пр!B37</f>
         <v>80.5</v>
       </c>
-      <c r="D39" s="87"/>
+      <c r="D39" s="87">
+        <v>0</v>
+      </c>
       <c r="E39" s="87">
         <f>Нефтепродукты!B38</f>
         <v>372.15000000000003</v>
@@ -3678,8 +3880,12 @@
         <f>ПТТ!B37</f>
         <v>0</v>
       </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="H39" s="87">
+        <v>0</v>
+      </c>
+      <c r="I39" s="87">
+        <v>0</v>
+      </c>
       <c r="J39" s="87">
         <f>Электро!B37</f>
         <v>542.80999999999995</v>
